--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Il1rap</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.78929771242466</v>
+        <v>94.03756700000001</v>
       </c>
       <c r="H2">
-        <v>4.78929771242466</v>
+        <v>282.112701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.99614579705344</v>
+        <v>41.89758066666666</v>
       </c>
       <c r="N2">
-        <v>6.99614579705344</v>
+        <v>125.692742</v>
       </c>
       <c r="O2">
-        <v>0.3717028845352894</v>
+        <v>0.7683440336868811</v>
       </c>
       <c r="P2">
-        <v>0.3717028845352894</v>
+        <v>0.768344033686881</v>
       </c>
       <c r="Q2">
-        <v>33.50662506161744</v>
+        <v>3939.946549079571</v>
       </c>
       <c r="R2">
-        <v>33.50662506161744</v>
+        <v>35459.51894171615</v>
       </c>
       <c r="S2">
-        <v>0.3717028845352894</v>
+        <v>0.7289208346352281</v>
       </c>
       <c r="T2">
-        <v>0.3717028845352894</v>
+        <v>0.7289208346352279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,49 +596,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.78929771242466</v>
+        <v>94.03756700000001</v>
       </c>
       <c r="H3">
-        <v>4.78929771242466</v>
+        <v>282.112701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.65722757692469</v>
+        <v>3.697151666666667</v>
       </c>
       <c r="N3">
-        <v>3.65722757692469</v>
+        <v>11.091455</v>
       </c>
       <c r="O3">
-        <v>0.1943072770606713</v>
+        <v>0.06780067916854361</v>
       </c>
       <c r="P3">
-        <v>0.1943072770606713</v>
+        <v>0.0678006791685436</v>
       </c>
       <c r="Q3">
-        <v>17.5155516679818</v>
+        <v>347.6711475633284</v>
       </c>
       <c r="R3">
-        <v>17.5155516679818</v>
+        <v>3129.040328069955</v>
       </c>
       <c r="S3">
-        <v>0.1943072770606713</v>
+        <v>0.06432187338167127</v>
       </c>
       <c r="T3">
-        <v>0.1943072770606713</v>
+        <v>0.06432187338167125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.78929771242466</v>
+        <v>94.03756700000001</v>
       </c>
       <c r="H4">
-        <v>4.78929771242466</v>
+        <v>282.112701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.20270486604708</v>
+        <v>4.857959</v>
       </c>
       <c r="N4">
-        <v>4.20270486604708</v>
+        <v>14.573877</v>
       </c>
       <c r="O4">
-        <v>0.2232883028564283</v>
+        <v>0.08908828992398354</v>
       </c>
       <c r="P4">
-        <v>0.2232883028564283</v>
+        <v>0.08908828992398353</v>
       </c>
       <c r="Q4">
-        <v>20.12800480095527</v>
+        <v>456.8306449457531</v>
       </c>
       <c r="R4">
-        <v>20.12800480095527</v>
+        <v>4111.475804511778</v>
       </c>
       <c r="S4">
-        <v>0.2232883028564283</v>
+        <v>0.08451723160523585</v>
       </c>
       <c r="T4">
-        <v>0.2232883028564283</v>
+        <v>0.08451723160523583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.78929771242466</v>
+        <v>94.03756700000001</v>
       </c>
       <c r="H5">
-        <v>4.78929771242466</v>
+        <v>282.112701</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.96579828589997</v>
+        <v>4.077023</v>
       </c>
       <c r="N5">
-        <v>3.96579828589997</v>
+        <v>12.231069</v>
       </c>
       <c r="O5">
-        <v>0.210701535547611</v>
+        <v>0.07476699722059184</v>
       </c>
       <c r="P5">
-        <v>0.210701535547611</v>
+        <v>0.07476699722059182</v>
       </c>
       <c r="Q5">
-        <v>18.99338865859836</v>
+        <v>383.393323523041</v>
       </c>
       <c r="R5">
-        <v>18.99338865859836</v>
+        <v>3450.539911707369</v>
       </c>
       <c r="S5">
-        <v>0.210701535547611</v>
+        <v>0.07093075448987392</v>
       </c>
       <c r="T5">
-        <v>0.210701535547611</v>
+        <v>0.0709307544898739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.085959333333333</v>
+      </c>
+      <c r="H6">
+        <v>15.257878</v>
+      </c>
+      <c r="I6">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="J6">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>41.89758066666666</v>
+      </c>
+      <c r="N6">
+        <v>125.692742</v>
+      </c>
+      <c r="O6">
+        <v>0.7683440336868811</v>
+      </c>
+      <c r="P6">
+        <v>0.768344033686881</v>
+      </c>
+      <c r="Q6">
+        <v>213.0893914357195</v>
+      </c>
+      <c r="R6">
+        <v>1917.804522921476</v>
+      </c>
+      <c r="S6">
+        <v>0.03942319905165306</v>
+      </c>
+      <c r="T6">
+        <v>0.03942319905165306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.085959333333333</v>
+      </c>
+      <c r="H7">
+        <v>15.257878</v>
+      </c>
+      <c r="I7">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="J7">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.697151666666667</v>
+      </c>
+      <c r="N7">
+        <v>11.091455</v>
+      </c>
+      <c r="O7">
+        <v>0.06780067916854361</v>
+      </c>
+      <c r="P7">
+        <v>0.0678006791685436</v>
+      </c>
+      <c r="Q7">
+        <v>18.80356302583222</v>
+      </c>
+      <c r="R7">
+        <v>169.23206723249</v>
+      </c>
+      <c r="S7">
+        <v>0.003478805786872345</v>
+      </c>
+      <c r="T7">
+        <v>0.003478805786872344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.085959333333333</v>
+      </c>
+      <c r="H8">
+        <v>15.257878</v>
+      </c>
+      <c r="I8">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="J8">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.857959</v>
+      </c>
+      <c r="N8">
+        <v>14.573877</v>
+      </c>
+      <c r="O8">
+        <v>0.08908828992398354</v>
+      </c>
+      <c r="P8">
+        <v>0.08908828992398353</v>
+      </c>
+      <c r="Q8">
+        <v>24.70738191700067</v>
+      </c>
+      <c r="R8">
+        <v>222.366437253006</v>
+      </c>
+      <c r="S8">
+        <v>0.0045710583187477</v>
+      </c>
+      <c r="T8">
+        <v>0.004571058318747699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.085959333333333</v>
+      </c>
+      <c r="H9">
+        <v>15.257878</v>
+      </c>
+      <c r="I9">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="J9">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.077023</v>
+      </c>
+      <c r="N9">
+        <v>12.231069</v>
+      </c>
+      <c r="O9">
+        <v>0.07476699722059184</v>
+      </c>
+      <c r="P9">
+        <v>0.07476699722059182</v>
+      </c>
+      <c r="Q9">
+        <v>20.73557317906467</v>
+      </c>
+      <c r="R9">
+        <v>186.620158611582</v>
+      </c>
+      <c r="S9">
+        <v>0.003836242730717921</v>
+      </c>
+      <c r="T9">
+        <v>0.00383624273071792</v>
       </c>
     </row>
   </sheetData>
